--- a/biology/Zoologie/Euparyphus/Euparyphus.xlsx
+++ b/biology/Zoologie/Euparyphus/Euparyphus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Euparyphus est un genre d'insectes diptères brachycères de la famille des Stratiomyidae, de la sous-famille des Stratiomyinae et de la tribu des Oxycerini.
 </t>
@@ -511,39 +523,41 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 E. albipilosus Adams, 1903
 E. apicalis Coquillett, 1902
-E. arizonae James, 1973[2]
-E. ater James, 1973[2]
+E. arizonae James, 1973
+E. ater James, 1973
 E. bistriatus Williston, 1896
 E. brasiliensis Lindner, 1949
 E. brevicornis Loew, 1866
 E. carbonarius Giglio-Tos, 1891
-E. cataractus Quist, 1973[2]
+E. cataractus Quist, 1973
 E. cinctus Osten Sacken, 1886
 E. elegans (Wiedemann, 1830) - type
 E. elongatulus Williston, 1900
-E. facialis James, 1973[2]
+E. facialis James, 1973
 E. hamifer James, 1940
 E. lagunae Cole, 1912
 E. limbrocutris Adams, 1903
-E. monensis James, 1973[2]
+E. monensis James, 1973
 E. mutabilis Adams, 1903
-E. nebulosus James, 1973[2]
+E. nebulosus James, 1973
 E. ornatus Williston, 1885
 E. pardalinus James, 1936
-E. patagius Quist, 1973[2]
+E. patagius Quist, 1973
 E. peruvianus Lindner, 1941
-E. proxipalus Quist, 1973[2]
-E. pygmaea James, 1973[2]
-E. rothi James, 1973[2]
+E. proxipalus Quist, 1973
+E. pygmaea James, 1973
+E. rothi James, 1973
 E. sabroskyi James, 1936
 E. stigmaticalis Loew, 1866
 E. tricolor Osten Sacken, 1886
-E. umbrulus Quist, 1973[2]
+E. umbrulus Quist, 1973
 </t>
         </is>
       </c>
